--- a/Programador_semanal.xlsx
+++ b/Programador_semanal.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t xml:space="preserve">Lunes </t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>Hora</t>
+  </si>
+  <si>
+    <t>Prepara alimentos para grupo familiar</t>
   </si>
 </sst>
 </file>
@@ -137,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -162,6 +165,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -637,7 +643,7 @@
   <dimension ref="A2:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -681,16 +687,28 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>0.16666666666666666</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="5"/>
+      <c r="B5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
@@ -936,15 +954,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>AssetEditForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Downloads xmlns="2958f784-0ef9-4616-b22d-512a8cad1f0d">0</Downloads>
@@ -1084,6 +1093,15 @@
 </p:properties>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>AssetEditForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="TemplateFile" ma:contentTypeID="0x010100DE95A0C693CEB341887D38A4A2B58B45040072C752107C5A7B47AA91A1EE638E6F1F" ma:contentTypeVersion="55" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3c98c83416931a21d43ed007fda5e4dd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2958f784-0ef9-4616-b22d-512a8cad1f0d" xmlns:ns3="fb5acd76-e9f3-4601-9d69-91f53ab96ae6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="938018c4f46d99993d20879d4e9ddff8" ns2:_="" ns3:_="">
@@ -2144,14 +2162,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB0ABD9-2D20-4762-A9C4-40EB18F83CA2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8121883-470C-4C1A-AD2C-C9FFF4CD7655}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -2164,6 +2174,14 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB0ABD9-2D20-4762-A9C4-40EB18F83CA2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Programador_semanal.xlsx
+++ b/Programador_semanal.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="38">
   <si>
     <t xml:space="preserve">Lunes </t>
   </si>
@@ -48,6 +48,93 @@
   </si>
   <si>
     <t>Prepara alimentos para grupo familiar</t>
+  </si>
+  <si>
+    <t>Realizar oficios y aseo personal</t>
+  </si>
+  <si>
+    <t>Trabajo en empresa</t>
+  </si>
+  <si>
+    <t>Laboratorio de informatica II</t>
+  </si>
+  <si>
+    <t>TRANSPORTE Despolazarme a la udea</t>
+  </si>
+  <si>
+    <t>TRANSPORTE Regreso a mi municipio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recoger a mis hijos y ayudarles a prepara todo para el dia siguiente y con dudas en sus tareas </t>
+  </si>
+  <si>
+    <t>Estudio extraclase (Calculo Vectorial)</t>
+  </si>
+  <si>
+    <t>INFORMATICA II</t>
+  </si>
+  <si>
+    <t>Estudio extraclase (Fisica de ondas)</t>
+  </si>
+  <si>
+    <t>PROBABILIDAD Y ESTADISTICA</t>
+  </si>
+  <si>
+    <t>Estudio extraclase (Probabilidad y estadistica)</t>
+  </si>
+  <si>
+    <t>Estudio extraclase (calculo vectorial)</t>
+  </si>
+  <si>
+    <t>FISICA DE ONDAS</t>
+  </si>
+  <si>
+    <t>MATEMATICAS DISCRETAS</t>
+  </si>
+  <si>
+    <t>CALCULO VECTORIAL</t>
+  </si>
+  <si>
+    <t>Estudio extraclase (matematicas discretas)</t>
+  </si>
+  <si>
+    <t>Recoger a mis hijos</t>
+  </si>
+  <si>
+    <t>Realizar oficios y aseo general en mi casa</t>
+  </si>
+  <si>
+    <t>Estudio extraclase (Continuar desarrollo de la  practica de laboratorio 1)</t>
+  </si>
+  <si>
+    <t>SEMANA DEL 20 AL 25 DE FEBRERO</t>
+  </si>
+  <si>
+    <t>SEMANA DEL 13 AL 18 DE FEBRERO</t>
+  </si>
+  <si>
+    <t>Estudio extraclase (Fisica de ondas, quiz el 17)</t>
+  </si>
+  <si>
+    <t>Estudio extraclase (finalizar  desarrollo de la  practica de laboratorio 1)</t>
+  </si>
+  <si>
+    <t>Estudio extraclase (Fionalizar desarrollo de la  practica de laboratorio 1)</t>
+  </si>
+  <si>
+    <t>SEMANA DEL 27 DE FEBRERO AL 4 DE MARZO</t>
+  </si>
+  <si>
+    <t>Estudio extraclase (Continuar desarrollo de la  practica de laboratorio 2)</t>
+  </si>
+  <si>
+    <t>Reforzar en las materias que sienta mas dificultad</t>
+  </si>
+  <si>
+    <t>SEMANA DEL 6 AL 10 DE MARZO</t>
+  </si>
+  <si>
+    <t>Estudio extraclase (Finalizar desarrollo de la  practica de laboratorio 2)</t>
   </si>
 </sst>
 </file>
@@ -140,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -154,26 +241,33 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="36">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -181,7 +275,7 @@
           <bgColor theme="8" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="0" tint="-0.34998626667073579"/>
@@ -200,7 +294,7 @@
           <bgColor theme="8" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="0" tint="-0.34998626667073579"/>
@@ -219,7 +313,7 @@
           <bgColor theme="8" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="0" tint="-0.34998626667073579"/>
@@ -238,7 +332,7 @@
           <bgColor theme="8" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="0" tint="-0.34998626667073579"/>
@@ -257,7 +351,7 @@
           <bgColor theme="8" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="0" tint="-0.34998626667073579"/>
@@ -276,7 +370,7 @@
           <bgColor theme="8" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="0" tint="-0.34998626667073579"/>
@@ -295,7 +389,7 @@
           <bgColor theme="8" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="0" tint="-0.34998626667073579"/>
@@ -308,7 +402,469 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -339,7 +895,52 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla4" displayName="Tabla4" ref="B4:H22" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla4" displayName="Tabla4" ref="B4:H23" totalsRowShown="0" headerRowDxfId="35" dataDxfId="27">
+  <tableColumns count="7">
+    <tableColumn id="1" name="Lunes " dataDxfId="34"/>
+    <tableColumn id="2" name="Martes" dataDxfId="33"/>
+    <tableColumn id="3" name="Miércoles" dataDxfId="32"/>
+    <tableColumn id="4" name="Jueves" dataDxfId="31"/>
+    <tableColumn id="5" name="Viernes" dataDxfId="30"/>
+    <tableColumn id="6" name="Sábado" dataDxfId="29"/>
+    <tableColumn id="7" name="Domingo" dataDxfId="28"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla42" displayName="Tabla42" ref="B28:H47" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+  <tableColumns count="7">
+    <tableColumn id="1" name="Lunes " dataDxfId="24"/>
+    <tableColumn id="2" name="Martes" dataDxfId="23"/>
+    <tableColumn id="3" name="Miércoles" dataDxfId="22"/>
+    <tableColumn id="4" name="Jueves" dataDxfId="21"/>
+    <tableColumn id="5" name="Viernes" dataDxfId="20"/>
+    <tableColumn id="6" name="Sábado" dataDxfId="19"/>
+    <tableColumn id="7" name="Domingo" dataDxfId="18"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla43" displayName="Tabla43" ref="B52:H71" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <tableColumns count="7">
+    <tableColumn id="1" name="Lunes " dataDxfId="15"/>
+    <tableColumn id="2" name="Martes" dataDxfId="14"/>
+    <tableColumn id="3" name="Miércoles" dataDxfId="13"/>
+    <tableColumn id="4" name="Jueves" dataDxfId="12"/>
+    <tableColumn id="5" name="Viernes" dataDxfId="11"/>
+    <tableColumn id="6" name="Sábado" dataDxfId="10"/>
+    <tableColumn id="7" name="Domingo" dataDxfId="9"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla44" displayName="Tabla44" ref="B76:H95" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <tableColumns count="7">
     <tableColumn id="1" name="Lunes " dataDxfId="6"/>
     <tableColumn id="2" name="Martes" dataDxfId="5"/>
@@ -640,10 +1241,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H22"/>
+  <dimension ref="A2:H95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="G94" sqref="G94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,7 +1254,9 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="8"/>
+      <c r="B2" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
@@ -662,7 +1265,7 @@
       <c r="H2" s="8"/>
     </row>
     <row r="4" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -688,241 +1291,1946 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>0.16666666666666666</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
         <v>0.20833333333333334</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="B6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
         <v>0.25</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="B7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
         <v>0.29166666666666669</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="B8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
         <v>0.33333333333333331</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="B9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
         <v>0.375</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="B10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="B11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
         <v>0.45833333333333331</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+      <c r="B12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
         <v>0.5</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+      <c r="B13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
         <v>0.54166666666666663</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+      <c r="B14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
         <v>0.58333333333333337</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
+      <c r="B15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
         <v>0.625</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
+      <c r="B16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
         <v>0.66666666666666663</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
+      <c r="B17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
         <v>0.70833333333333337</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
+      <c r="B18" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
         <v>0.75</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
+      <c r="B19" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
         <v>0.79166666666666663</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
+      <c r="B20" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
         <v>0.83333333333333337</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
+      <c r="B21" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
         <v>0.875</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="4"/>
+      <c r="B22" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.3">
+      <c r="A23" s="12">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="F23" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="10"/>
+      <c r="H23" s="9"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+    </row>
+    <row r="28" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="9"/>
+    </row>
+    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H30" s="9"/>
+    </row>
+    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" s="9"/>
+    </row>
+    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" s="9"/>
+    </row>
+    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33" s="9"/>
+    </row>
+    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H34" s="9"/>
+    </row>
+    <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H35" s="9"/>
+    </row>
+    <row r="36" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="6">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39" s="9"/>
+    </row>
+    <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="6">
+        <v>0.625</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H40" s="9"/>
+    </row>
+    <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="6">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H41" s="9"/>
+    </row>
+    <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="6">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H42" s="9"/>
+    </row>
+    <row r="43" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H43" s="9"/>
+    </row>
+    <row r="44" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A44" s="6">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H44" s="9"/>
+    </row>
+    <row r="45" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A45" s="6">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H45" s="9"/>
+    </row>
+    <row r="46" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A46" s="6">
+        <v>0.875</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H46" s="9"/>
+    </row>
+    <row r="47" spans="1:8" ht="30" x14ac:dyDescent="0.3">
+      <c r="A47" s="12">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="B47" s="9"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47" s="10"/>
+      <c r="F47" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47" s="10"/>
+      <c r="H47" s="9"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B50" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+    </row>
+    <row r="52" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="6">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H53" s="9"/>
+    </row>
+    <row r="54" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="6">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H54" s="4"/>
+    </row>
+    <row r="55" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H55" s="4"/>
+    </row>
+    <row r="56" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="6">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H56" s="4"/>
+    </row>
+    <row r="57" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G57" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H57" s="4"/>
+    </row>
+    <row r="58" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H58" s="4"/>
+    </row>
+    <row r="59" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A59" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H59" s="4"/>
+    </row>
+    <row r="60" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A60" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H60" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A61" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A62" s="6">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G62" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H62" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H63" s="9"/>
+    </row>
+    <row r="64" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="6">
+        <v>0.625</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G64" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H64" s="9"/>
+    </row>
+    <row r="65" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="6">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G65" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H65" s="9"/>
+    </row>
+    <row r="66" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="6">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G66" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H66" s="9"/>
+    </row>
+    <row r="67" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F67" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G67" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H67" s="9"/>
+    </row>
+    <row r="68" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A68" s="6">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G68" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H68" s="9"/>
+    </row>
+    <row r="69" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A69" s="6">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G69" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H69" s="9"/>
+    </row>
+    <row r="70" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A70" s="6">
+        <v>0.875</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F70" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G70" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H70" s="9"/>
+    </row>
+    <row r="71" spans="1:8" ht="30" x14ac:dyDescent="0.3">
+      <c r="A71" s="12">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="B71" s="9"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E71" s="10"/>
+      <c r="F71" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G71" s="10"/>
+      <c r="H71" s="9"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B74" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8"/>
+    </row>
+    <row r="76" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="6">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G77" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H77" s="9"/>
+    </row>
+    <row r="78" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="6">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E78" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F78" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G78" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H78" s="9"/>
+    </row>
+    <row r="79" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F79" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G79" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H79" s="9"/>
+    </row>
+    <row r="80" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="6">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E80" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F80" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G80" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H80" s="9"/>
+    </row>
+    <row r="81" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E81" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F81" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G81" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H81" s="9"/>
+    </row>
+    <row r="82" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E82" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F82" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G82" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H82" s="9"/>
+    </row>
+    <row r="83" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A83" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E83" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F83" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G83" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H83" s="9"/>
+    </row>
+    <row r="84" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A84" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E84" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F84" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G84" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H84" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A85" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E85" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F85" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G85" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H85" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A86" s="6">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E86" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F86" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G86" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H86" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E87" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F87" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G87" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H87" s="9"/>
+    </row>
+    <row r="88" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" s="6">
+        <v>0.625</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E88" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F88" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G88" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H88" s="9"/>
+    </row>
+    <row r="89" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="6">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E89" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F89" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G89" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H89" s="9"/>
+    </row>
+    <row r="90" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" s="6">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E90" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F90" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G90" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H90" s="9"/>
+    </row>
+    <row r="91" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A91" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E91" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F91" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G91" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H91" s="9"/>
+    </row>
+    <row r="92" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A92" s="6">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E92" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F92" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G92" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H92" s="9"/>
+    </row>
+    <row r="93" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A93" s="6">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E93" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F93" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G93" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H93" s="9"/>
+    </row>
+    <row r="94" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A94" s="6">
+        <v>0.875</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E94" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F94" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G94" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H94" s="9"/>
+    </row>
+    <row r="95" spans="1:8" ht="30" x14ac:dyDescent="0.3">
+      <c r="A95" s="12">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="B95" s="9"/>
+      <c r="C95" s="10"/>
+      <c r="D95" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E95" s="10"/>
+      <c r="F95" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G95" s="10"/>
+      <c r="H95" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B50:H50"/>
+    <mergeCell ref="B74:H74"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <tableParts count="1">
+  <tableParts count="4">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
@@ -954,6 +3262,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>AssetEditForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Downloads xmlns="2958f784-0ef9-4616-b22d-512a8cad1f0d">0</Downloads>
@@ -1091,15 +3408,6 @@
     <LocMarketGroupTiers2 xmlns="2958f784-0ef9-4616-b22d-512a8cad1f0d" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>AssetEditForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2162,6 +4470,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB0ABD9-2D20-4762-A9C4-40EB18F83CA2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8121883-470C-4C1A-AD2C-C9FFF4CD7655}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -2174,14 +4490,6 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB0ABD9-2D20-4762-A9C4-40EB18F83CA2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
